--- a/Modulator/BOM/modulator.xlsx
+++ b/Modulator/BOM/modulator.xlsx
@@ -32,6 +32,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">47uF/16V Radial
 </t>
@@ -45,6 +46,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Cap. Trimer 60pF</t>
         </r>
@@ -57,6 +59,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">2x 18pF paralelne</t>
         </r>
@@ -69,6 +72,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">TR191</t>
         </r>
@@ -81,6 +85,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">TR191</t>
         </r>
@@ -93,6 +98,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">TR191</t>
         </r>
@@ -105,6 +111,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">TR191</t>
         </r>
@@ -117,6 +124,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">TR191</t>
         </r>
@@ -129,6 +137,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">TR191</t>
         </r>
@@ -141,6 +150,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">TR191</t>
         </r>
@@ -153,6 +163,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">TR191</t>
         </r>
@@ -165,6 +176,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">TR191</t>
         </r>
@@ -177,18 +189,33 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">TR191</t>
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0">
+    <comment ref="D24" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">TR191</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">KA261/1N4148</t>
         </r>
@@ -199,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="148">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -528,7 +555,7 @@
     <t xml:space="preserve">603-CFR-25JB-52-270R</t>
   </si>
   <si>
-    <t xml:space="preserve">R13, R14</t>
+    <t xml:space="preserve">R13</t>
   </si>
   <si>
     <t xml:space="preserve">82R</t>
@@ -541,6 +568,21 @@
   </si>
   <si>
     <t xml:space="preserve">71-CCF0782R0GKE36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF1/4W-2R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">594-SFR16S0002208JA5</t>
   </si>
   <si>
     <t xml:space="preserve">TR1</t>
@@ -637,11 +679,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -664,12 +707,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -734,7 +771,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -744,10 +781,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -832,18 +865,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="B3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.21"/>
@@ -926,13 +959,13 @@
       <c r="D4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -949,13 +982,13 @@
       <c r="D5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1104,13 +1137,13 @@
       <c r="D12" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1147,10 +1180,10 @@
       <c r="E14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1167,13 +1200,13 @@
       <c r="D15" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1193,10 +1226,10 @@
       <c r="E16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1239,10 +1272,10 @@
       <c r="E18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1259,13 +1292,13 @@
       <c r="D19" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1305,13 +1338,13 @@
       <c r="D21" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1328,13 +1361,13 @@
       <c r="D22" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1346,7 +1379,7 @@
         <v>64</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>110</v>
@@ -1366,121 +1399,124 @@
         <v>114</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="0" t="s">
+      <c r="E24" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="G24" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="4" t="s">
         <v>124</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,8 +1532,28 @@
       <c r="D31" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="H31" s="0" t="s">
-        <v>124</v>
+      <c r="F31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +1566,7 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId2" location="" display="40745"/>
+    <hyperlink ref="E3" r:id="rId2" display="40745"/>
     <hyperlink ref="F3" r:id="rId3" display="URS1C470MDD1TD"/>
     <hyperlink ref="G3" r:id="rId4" display="710-860010372004"/>
     <hyperlink ref="E4" r:id="rId5" display="25034"/>
@@ -1519,44 +1575,44 @@
     <hyperlink ref="E5" r:id="rId8" display="25034"/>
     <hyperlink ref="F5" r:id="rId9" display="CC-104/100"/>
     <hyperlink ref="G5" r:id="rId10" display="594-K104M15X7RF53H5"/>
-    <hyperlink ref="E6" r:id="rId11" location="" display="43526"/>
+    <hyperlink ref="E6" r:id="rId11" display="43526"/>
     <hyperlink ref="F6" r:id="rId12" display="CC-100"/>
     <hyperlink ref="G6" r:id="rId13" display="594-K101J10C0GF5UH5"/>
     <hyperlink ref="I7" r:id="rId14" display="or China"/>
     <hyperlink ref="F8" r:id="rId15" display="CC-18/500"/>
     <hyperlink ref="G8" r:id="rId16" display="81-RDE5C1H180J0P1H3B"/>
-    <hyperlink ref="E9" r:id="rId17" location="" display="58754"/>
+    <hyperlink ref="E9" r:id="rId17" display="58754"/>
     <hyperlink ref="F9" r:id="rId18" display="CCK-10N"/>
     <hyperlink ref="G9" r:id="rId19" display="594-K103K15X7RF5TH5"/>
-    <hyperlink ref="E10" r:id="rId20" location="" display="15804"/>
+    <hyperlink ref="E10" r:id="rId20" display="15804"/>
     <hyperlink ref="F10" r:id="rId21" display="TC-47/16"/>
     <hyperlink ref="G10" r:id="rId22" display="581-TAP476M006SCS"/>
-    <hyperlink ref="E11" r:id="rId23" location="" display="15800"/>
+    <hyperlink ref="E11" r:id="rId23" display="15800"/>
     <hyperlink ref="F11" r:id="rId24" display="TKT100M1602BR"/>
     <hyperlink ref="G11" r:id="rId25" display="581-TAP106K016SCS"/>
     <hyperlink ref="E12" r:id="rId26" display="343361"/>
     <hyperlink ref="F12" r:id="rId27" display="CC-1N"/>
     <hyperlink ref="G12" r:id="rId28" display="594-D102K20Y5PH63L2R"/>
     <hyperlink ref="G13" r:id="rId29" display="598-476TTA016MSD"/>
-    <hyperlink ref="E14" r:id="rId30" location="" display="30943"/>
+    <hyperlink ref="E14" r:id="rId30" display="30943"/>
     <hyperlink ref="F14" r:id="rId31" display="CF1/4W-4K7"/>
     <hyperlink ref="G14" r:id="rId32" display="71-CCF07-J-4.7K-E3"/>
     <hyperlink ref="E15" r:id="rId33" display="30952"/>
     <hyperlink ref="F15" r:id="rId34" display="CF1/4W-5K6"/>
     <hyperlink ref="G15" r:id="rId35" display="71-CCF075K60JKE36"/>
-    <hyperlink ref="E16" r:id="rId36" location="" display="30903"/>
+    <hyperlink ref="E16" r:id="rId36" display="30903"/>
     <hyperlink ref="F16" r:id="rId37" display="CF1/4W-2K2"/>
     <hyperlink ref="G16" r:id="rId38" display="71-CCF072K20JKE36"/>
-    <hyperlink ref="E17" r:id="rId39" location="" display="31095"/>
+    <hyperlink ref="E17" r:id="rId39" display="31095"/>
     <hyperlink ref="F17" r:id="rId40" display="CF1/4W-100K"/>
     <hyperlink ref="G17" r:id="rId41" display="71-CCF07100KJKE36"/>
-    <hyperlink ref="E18" r:id="rId42" location="" display="30867"/>
+    <hyperlink ref="E18" r:id="rId42" display="30867"/>
     <hyperlink ref="F18" r:id="rId43" display="CF1/4W-1K"/>
     <hyperlink ref="G18" r:id="rId44" display="71-CCF071K00JKE36"/>
     <hyperlink ref="E19" r:id="rId45" display="30924"/>
     <hyperlink ref="F19" r:id="rId46" display="CF1/4W-3K3"/>
     <hyperlink ref="G19" r:id="rId47" display="71-CCF073K30JKE36"/>
-    <hyperlink ref="E20" r:id="rId48" location="" display="30894"/>
+    <hyperlink ref="E20" r:id="rId48" display="30894"/>
     <hyperlink ref="F20" r:id="rId49" display="CF1/4W-1K8"/>
     <hyperlink ref="G20" r:id="rId50" display="71-CCF071K80GKE36"/>
     <hyperlink ref="E21" r:id="rId51" display="30857"/>
@@ -1565,12 +1621,15 @@
     <hyperlink ref="E22" r:id="rId54" display="30800"/>
     <hyperlink ref="F22" r:id="rId55" display="CF1/4W-270R"/>
     <hyperlink ref="G22" r:id="rId56" display="603-CFR-25JB-52-270R"/>
-    <hyperlink ref="E23" r:id="rId57" location="" display="30743"/>
+    <hyperlink ref="E23" r:id="rId57" display="30743"/>
     <hyperlink ref="F23" r:id="rId58" display="CF1/4W-82R"/>
     <hyperlink ref="G23" r:id="rId59" display="71-CCF0782R0GKE36"/>
-    <hyperlink ref="F24" r:id="rId60" display="CA6V-500"/>
-    <hyperlink ref="F30" r:id="rId61" display="4.433619M-HC49R"/>
-    <hyperlink ref="G30" r:id="rId62" display="710-830003099B"/>
+    <hyperlink ref="E24" r:id="rId60" location="" display="30623"/>
+    <hyperlink ref="F24" r:id="rId61" display="CF1/4W-2R2"/>
+    <hyperlink ref="G24" r:id="rId62" display="594-SFR16S0002208JA5"/>
+    <hyperlink ref="F25" r:id="rId63" display="CA6V-500"/>
+    <hyperlink ref="F31" r:id="rId64" display="4.433619M-HC49R"/>
+    <hyperlink ref="G31" r:id="rId65" display="710-830003099B"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1579,6 +1638,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId63"/>
+  <legacyDrawing r:id="rId66"/>
 </worksheet>
 </file>